--- a/InputInvoice.xlsx
+++ b/InputInvoice.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1815" yWindow="45" windowWidth="20025" windowHeight="15480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
@@ -504,10 +504,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -557,11 +557,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
@@ -585,11 +585,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
@@ -613,11 +613,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -636,16 +636,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T006.407.16.053.00</t>
+          <t>T094.210.11.111.00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2832</v>
+        <v>1652</v>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
@@ -664,16 +664,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>T094.210.11.111.00</t>
+          <t>T099.407.11.048.00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1652</v>
+        <v>3953</v>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>T099.407.11.048.00</t>
+          <t>T116.617.11.057.01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3953</v>
+        <v>1888</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T116.617.11.057.01</t>
+          <t>T120.417.11.041.01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1888</v>
+        <v>2743.5</v>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
@@ -748,12 +748,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T120.417.11.041.01</t>
+          <t>T120.417.11.091.01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
@@ -776,12 +776,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T120.417.11.091.01</t>
+          <t>T126.010.11.013.00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2743.5</v>
+        <v>2006</v>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
@@ -804,16 +804,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>T126.010.11.013.00</t>
+          <t>T126.010.22.013.01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2006</v>
+        <v>2212.5</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
@@ -832,16 +832,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T126.010.22.013.01</t>
+          <t>T126.010.36.013.00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2212.5</v>
+        <v>2006</v>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
@@ -860,16 +860,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T126.010.36.013.00</t>
+          <t>T126.207.11.013.00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2006</v>
+        <v>3481</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
@@ -888,16 +888,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T126.207.11.013.00</t>
+          <t>T137.407.11.041.00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3481</v>
+        <v>3274.5</v>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
@@ -916,12 +916,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T137.407.11.041.00</t>
+          <t>T137.407.11.051.00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
@@ -944,16 +944,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T137.407.11.051.00</t>
+          <t>T137.410.11.041.00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SO2311035</t>
+          <t>SO2311043</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
@@ -961,65 +961,9 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3274.5</v>
+        <v>1740.5</v>
       </c>
       <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>cs</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>T137.410.11.041.00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SO2311035</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>現貨</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1740.5</v>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>cs</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>T41.1.183.33</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SO2311035</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>現貨</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2861.5</v>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>cs</t>
         </is>

--- a/InputInvoice.xlsx
+++ b/InputInvoice.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="20025" windowHeight="15480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
@@ -109,7 +109,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -121,6 +121,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -507,14 +510,14 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col width="17.375" customWidth="1" style="6" min="1" max="1"/>
-    <col width="27.625" customWidth="1" style="6" min="2" max="2"/>
-    <col width="12.75" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="17.375" customWidth="1" style="7" min="1" max="1"/>
+    <col width="27.625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="12.75" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,13 +560,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -571,7 +574,7 @@
       <c r="E2" t="n">
         <v>3127</v>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -585,13 +588,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -599,7 +602,7 @@
       <c r="E3" t="n">
         <v>3127</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -613,13 +616,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -627,7 +630,7 @@
       <c r="E4" t="n">
         <v>2832</v>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -641,13 +644,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -655,7 +658,7 @@
       <c r="E5" t="n">
         <v>1652</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -669,13 +672,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -683,7 +686,7 @@
       <c r="E6" t="n">
         <v>3953</v>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -697,13 +700,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -711,7 +714,7 @@
       <c r="E7" t="n">
         <v>1888</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -725,13 +728,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -739,7 +742,7 @@
       <c r="E8" t="n">
         <v>2743.5</v>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -753,13 +756,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -767,7 +770,7 @@
       <c r="E9" t="n">
         <v>2743.5</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -781,13 +784,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -795,7 +798,7 @@
       <c r="E10" t="n">
         <v>2006</v>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -809,13 +812,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -823,7 +826,7 @@
       <c r="E11" t="n">
         <v>2212.5</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -837,13 +840,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -851,7 +854,7 @@
       <c r="E12" t="n">
         <v>2006</v>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -865,13 +868,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -879,7 +882,7 @@
       <c r="E13" t="n">
         <v>3481</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -893,13 +896,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -907,7 +910,7 @@
       <c r="E14" t="n">
         <v>3274.5</v>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -921,13 +924,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -935,7 +938,7 @@
       <c r="E15" t="n">
         <v>3274.5</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
@@ -949,13 +952,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SO2311043</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
+          <t>SO2311044</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>現貨</t>
         </is>
@@ -963,7 +966,7 @@
       <c r="E16" t="n">
         <v>1740.5</v>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>

--- a/InputInvoice.xlsx
+++ b/InputInvoice.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -507,10 +507,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -555,16 +555,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>T006.407.11.033.00</t>
+          <t>T006.207.11.038.00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
@@ -583,16 +583,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T006.407.11.053.00</t>
+          <t>T006.207.16.038.00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C3" s="5" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3127</v>
+        <v>2832</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
@@ -611,16 +611,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T006.407.16.033.00</t>
+          <t>T006.407.11.033.00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2832</v>
+        <v>3127</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
@@ -639,16 +639,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T094.210.11.111.00</t>
+          <t>T006.407.11.033.02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1652</v>
+        <v>3894</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>T099.407.11.048.00</t>
+          <t>T006.407.11.043.00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3953</v>
+        <v>3127</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -695,12 +695,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>T116.617.11.057.01</t>
+          <t>T006.407.11.052.00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1888</v>
+        <v>3127</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
@@ -723,12 +723,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T120.417.11.041.01</t>
+          <t>T006.407.11.053.00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2743.5</v>
+        <v>3127</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
@@ -751,16 +751,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T120.417.11.091.01</t>
+          <t>T006.407.16.033.00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2743.5</v>
+        <v>2832</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
@@ -779,12 +779,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>T126.010.11.013.00</t>
+          <t>T006.407.16.053.00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2006</v>
+        <v>2832</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
@@ -807,16 +807,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>T126.010.22.013.01</t>
+          <t>T058.009.11.031.00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2212.5</v>
+        <v>1475</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
@@ -835,16 +835,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>T126.010.36.013.00</t>
+          <t>T063.617.36.037.00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2006</v>
+        <v>2301</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T126.207.11.013.00</t>
+          <t>T065.430.11.031.00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3481</v>
+        <v>2714</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -891,12 +891,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>T137.407.11.041.00</t>
+          <t>T094.210.11.111.00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3274.5</v>
+        <v>1652</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
@@ -919,12 +919,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T137.407.11.051.00</t>
+          <t>T099.407.11.048.00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C15" s="5" t="n">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3274.5</v>
+        <v>3953</v>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
@@ -947,12 +947,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T137.410.11.041.00</t>
+          <t>T109.407.11.031.00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SO2311044</t>
+          <t>SI2312007</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -964,9 +964,653 @@
         </is>
       </c>
       <c r="E16" t="n">
+        <v>2271.5</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>T116.617.11.047.01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1888</v>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>T120.407.11.091.01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3717</v>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>T120.417.11.041.01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2743.5</v>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>T120.417.11.051.00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2743.5</v>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>T120.417.11.091.01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2743.5</v>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>T120.607.11.041.00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5162.5</v>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>T120.607.11.041.01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5162.5</v>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>T122.210.16.033.00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1534</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>T122.423.11.033.00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1858.5</v>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>T125.617.33.051.00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2419</v>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>T126.010.11.013.00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>T126.010.22.013.01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2212.5</v>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>T126.010.36.013.00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>T126.207.11.013.00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3481</v>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>T126.207.22.013.00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3805.5</v>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>T126.207.36.013.00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3481</v>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>T127.407.11.091.01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3894</v>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>T137.407.11.041.00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3274.5</v>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>T137.407.11.091.00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3274.5</v>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>T137.410.11.041.00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>1740.5</v>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>T137.410.11.091.00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1740.5</v>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>T137.410.11.091.01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1740.5</v>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>cs</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>T41.1.183.33</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SI2312007</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>現貨</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2861.5</v>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
